--- a/data/Subset1_WithDialogActs/Fraction as Number 6_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Fraction as Number 6_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4047,12 +4047,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4693,12 +4693,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
